--- a/Daten/beispiel_1/Eingangsdaten/Netzeinspeisungen-E001-E003-Belgien.xlsx
+++ b/Daten/beispiel_1/Eingangsdaten/Netzeinspeisungen-E001-E003-Belgien.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12240" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kraftwerkszuordnung" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Importtabelle E003'!$A$2:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Kraftwerkszuordnung!$A$1:$K$52</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -532,8 +532,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -751,6 +751,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -785,6 +786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -960,15 +962,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K52"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -982,7 +984,7 @@
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>79</v>
       </c>
@@ -1018,7 +1020,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -1133,7 +1135,7 @@
       </c>
       <c r="I4" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J4" s="8">
         <v>18</v>
@@ -1147,7 +1149,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>-1035</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>87</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>89</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>2037.7</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -1601,7 +1603,7 @@
       </c>
       <c r="I15" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J15" s="8">
         <v>18</v>
@@ -1615,7 +1617,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
@@ -1730,7 +1732,7 @@
       </c>
       <c r="I18" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J18" s="8">
         <v>18</v>
@@ -1744,7 +1746,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>97</v>
       </c>
@@ -1773,7 +1775,7 @@
       </c>
       <c r="I19" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J19" s="8">
         <v>18</v>
@@ -1787,7 +1789,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -1816,7 +1818,7 @@
       </c>
       <c r="I20" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J20" s="8">
         <v>18</v>
@@ -1830,7 +1832,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>100</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
@@ -1945,7 +1947,7 @@
       </c>
       <c r="I23" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J23" s="8">
         <v>17</v>
@@ -1959,7 +1961,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>102</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>104</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
@@ -2074,7 +2076,7 @@
       </c>
       <c r="I26" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J26" s="8">
         <v>18</v>
@@ -2088,7 +2090,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -2117,7 +2119,7 @@
       </c>
       <c r="I27" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J27" s="8">
         <v>18</v>
@@ -2131,7 +2133,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>106</v>
       </c>
@@ -2174,7 +2176,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
@@ -2203,7 +2205,7 @@
       </c>
       <c r="I29" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J29" s="8">
         <v>17</v>
@@ -2217,7 +2219,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
@@ -2260,7 +2262,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>110</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>111</v>
       </c>
@@ -2375,7 +2377,7 @@
       </c>
       <c r="I33" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J33" s="8">
         <v>32</v>
@@ -2389,7 +2391,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>113</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>115</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>117</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>-144</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>118</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>120</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>121</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>122</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>124</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>123</v>
       </c>
@@ -2929,7 +2931,7 @@
       </c>
       <c r="I46" s="1">
         <f>VLOOKUP(F:F,Kraftwerkspark!$B$2:$F$7,5,FALSE)</f>
-        <v>7.125</v>
+        <v>2.85</v>
       </c>
       <c r="J46" s="8">
         <v>18</v>
@@ -2943,7 +2945,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>125</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>126</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>127</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>128</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>2111.1999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>130</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3209,7 +3211,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3217,14 +3219,14 @@
       <c r="I54" s="6"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -3233,8 +3235,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K52">
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
     <sortState ref="A2:K52">
       <sortCondition ref="B1:B52"/>
     </sortState>
@@ -3245,14 +3245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3260,7 +3260,7 @@
     <col min="7" max="7" width="17.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>131</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3409,9 +3409,8 @@
       <c r="E6" s="3">
         <v>0.35</v>
       </c>
-      <c r="F6" s="3">
-        <f>2.5*$F$5</f>
-        <v>7.125</v>
+      <c r="F6">
+        <v>2.85</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>138</v>
@@ -3419,8 +3418,11 @@
       <c r="H6" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3445,12 +3447,12 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>133</v>
       </c>
@@ -3465,7 +3467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3473,7 +3475,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3484,7 +3486,7 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>79</v>
       </c>
@@ -3540,7 +3542,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>87</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>88</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>90</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>91</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
@@ -4255,7 +4257,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -4310,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>97</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>100</v>
       </c>
@@ -4695,7 +4697,7 @@
         <v>255.07999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>102</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>106</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>108</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>109</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>110</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>111</v>
       </c>
@@ -5300,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>113</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>115</v>
       </c>
@@ -5520,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>117</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>118</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>120</v>
       </c>
@@ -5795,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>121</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>122</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>124</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>125</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>126</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>127</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>128</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>130</v>
       </c>
@@ -6345,21 +6347,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
@@ -6375,7 +6377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6383,7 +6385,7 @@
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.85546875" customWidth="1"/>
@@ -6393,12 +6395,12 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>145</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -6442,7 +6444,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6616,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -6674,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -6732,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -6761,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -6935,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -6993,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -7029,20 +7031,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AZ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:52">
+    <row r="1" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C1" s="21" t="s">
         <v>79</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="2:52">
+    <row r="2" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:52">
+    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
         <v>164</v>
       </c>
@@ -7498,13 +7500,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:52">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="2:52">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7709,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:52">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:52">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:52">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -8324,7 +8326,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:52">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:52">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:52">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
@@ -8939,7 +8941,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:52">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:52">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:52">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
@@ -9554,7 +9556,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:52">
+    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
@@ -9759,7 +9761,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:52">
+    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -9964,7 +9966,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:52">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:52">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:52">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:52">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:52">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -10989,7 +10991,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:52">
+    <row r="22" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -11194,7 +11196,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:52">
+    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:52">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -11611,7 +11613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11619,7 +11621,7 @@
       <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.85546875" customWidth="1"/>
@@ -11629,12 +11631,12 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>145</v>
       </c>
@@ -11660,7 +11662,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -11678,7 +11680,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -11736,18 +11738,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="6"/>
     </row>
   </sheetData>
@@ -11757,20 +11759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C1" s="21" t="s">
         <v>79</v>
       </c>
@@ -11928,7 +11930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="2:54">
+    <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
@@ -12086,7 +12088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:54">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
         <v>164</v>
       </c>
@@ -12244,13 +12246,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:54">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="2:54">
+    <row r="5" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:54">
+    <row r="6" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -12676,7 +12678,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:54">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" t="str">
@@ -12884,7 +12886,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:54">
+    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" t="str">
@@ -13092,7 +13094,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:54">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" t="str">
@@ -13300,7 +13302,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:54">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" t="str">
@@ -13508,7 +13510,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:54">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" t="str">
@@ -13716,7 +13718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:54">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" t="str">
@@ -13924,7 +13926,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:54">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" t="str">
@@ -14132,7 +14134,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:54">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" t="str">
@@ -14340,7 +14342,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:54">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" t="str">
@@ -14548,7 +14550,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:54">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" t="str">
@@ -14756,7 +14758,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" t="str">
@@ -14964,7 +14966,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" t="str">
@@ -15172,7 +15174,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" t="str">
@@ -15380,7 +15382,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" t="str">
@@ -15588,7 +15590,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" t="str">
@@ -15796,7 +15798,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" t="str">
@@ -16004,7 +16006,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" t="str">
@@ -16212,7 +16214,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" t="str">
